--- a/dash_app/tmp/geoCLUSTER_results.xlsx
+++ b/dash_app/tmp/geoCLUSTER_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Variable Parameter</t>
   </si>
@@ -94,7 +94,7 @@
     <t>utube</t>
   </si>
   <si>
-    <t>H2O</t>
+    <t>All</t>
   </si>
   <si>
     <t>Inlet Pressure (MPa)</t>
@@ -232,7 +232,10 @@
     <t>23.22</t>
   </si>
   <si>
-    <t>9999.00</t>
+    <t>sCO2 40-Year Average of Exergy (kWe)</t>
+  </si>
+  <si>
+    <t>sCO2 40-Year Average of Available Thermal Output (kWt)</t>
   </si>
   <si>
     <t>H2O 40-Year Average of Exergy (kWe)</t>
@@ -242,6 +245,15 @@
   </si>
   <si>
     <t>Time (year)</t>
+  </si>
+  <si>
+    <t>sCO2 Exergy (kWe)</t>
+  </si>
+  <si>
+    <t>sCO2 Outlet Temperature (˚C)</t>
+  </si>
+  <si>
+    <t>sCO2 Outlet Pressure (MPa)</t>
   </si>
   <si>
     <t>H2O Exergy (kWe)</t>
@@ -691,7 +703,7 @@
         <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -830,8 +842,8 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
+      <c r="F10">
+        <v>105.1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -850,8 +862,8 @@
       <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" t="s">
-        <v>41</v>
+      <c r="F11">
+        <v>28.54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -986,7 +998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -999,300 +1011,462 @@
     <col min="5" max="5" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
+        <v>131.8249664306641</v>
+      </c>
+      <c r="C2">
+        <v>709.0845947265625</v>
+      </c>
+      <c r="D2">
         <v>382.583251953125</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2338.595703125</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>8.800000190734863</v>
       </c>
       <c r="B3">
+        <v>296.7770690917969</v>
+      </c>
+      <c r="C3">
+        <v>1496.869995117188</v>
+      </c>
+      <c r="D3">
         <v>564.35205078125</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>3723.947998046875</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>12.60000038146973</v>
       </c>
       <c r="B4">
+        <v>436.4461975097656</v>
+      </c>
+      <c r="C4">
+        <v>2197.224853515625</v>
+      </c>
+      <c r="D4">
         <v>618.1097412109375</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>4576.619140625</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>16.39999961853027</v>
       </c>
       <c r="B5">
+        <v>537.9005126953125</v>
+      </c>
+      <c r="C5">
+        <v>2770.125244140625</v>
+      </c>
+      <c r="D5">
         <v>620.5618286132812</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>5140.24365234375</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>20.20000076293945</v>
       </c>
       <c r="B6">
+        <v>607.5574951171875</v>
+      </c>
+      <c r="C6">
+        <v>3231.18798828125</v>
+      </c>
+      <c r="D6">
         <v>603.321044921875</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>5537.6484375</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>24</v>
       </c>
       <c r="B7">
+        <v>654.2285766601562</v>
+      </c>
+      <c r="C7">
+        <v>3604.3505859375</v>
+      </c>
+      <c r="D7">
         <v>579.0676879882812</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>5832.095703125</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>27.79999923706055</v>
       </c>
       <c r="B8">
+        <v>684.9193725585938</v>
+      </c>
+      <c r="C8">
+        <v>3910.092529296875</v>
+      </c>
+      <c r="D8">
         <v>553.0466918945312</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>6058.63623046875</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>31.60000038146973</v>
       </c>
       <c r="B9">
+        <v>704.6170654296875</v>
+      </c>
+      <c r="C9">
+        <v>4164.15966796875</v>
+      </c>
+      <c r="D9">
         <v>527.4752197265625</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>6238.22509765625</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>35.40000152587891</v>
       </c>
       <c r="B10">
+        <v>716.6776733398438</v>
+      </c>
+      <c r="C10">
+        <v>4378.056640625</v>
+      </c>
+      <c r="D10">
         <v>503.2349548339844</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>6384.02783203125</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>39.20000076293945</v>
       </c>
       <c r="B11">
+        <v>723.3672485351562</v>
+      </c>
+      <c r="C11">
+        <v>4560.259765625</v>
+      </c>
+      <c r="D11">
         <v>480.6127319335938</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>6504.7216796875</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>43</v>
       </c>
       <c r="B12">
+        <v>726.2794189453125</v>
+      </c>
+      <c r="C12">
+        <v>4717.28515625</v>
+      </c>
+      <c r="D12">
         <v>459.6264343261719</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>6606.25390625</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>46.79999923706055</v>
       </c>
       <c r="B13">
+        <v>726.47705078125</v>
+      </c>
+      <c r="C13">
+        <v>4853.91552734375</v>
+      </c>
+      <c r="D13">
         <v>440.1504821777344</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>6692.65234375</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>50.59999847412109</v>
       </c>
       <c r="B14">
+        <v>724.697021484375</v>
+      </c>
+      <c r="C14">
+        <v>4973.84033203125</v>
+      </c>
+      <c r="D14">
         <v>422.0909118652344</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>6767.345703125</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>54.40000152587891</v>
       </c>
       <c r="B15">
+        <v>721.4427490234375</v>
+      </c>
+      <c r="C15">
+        <v>5079.8466796875</v>
+      </c>
+      <c r="D15">
         <v>405.2618713378906</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>6832.43408203125</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>58.20000076293945</v>
       </c>
       <c r="B16">
+        <v>717.1014404296875</v>
+      </c>
+      <c r="C16">
+        <v>5174.2705078125</v>
+      </c>
+      <c r="D16">
         <v>389.5218811035156</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>6889.7705078125</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>62</v>
       </c>
       <c r="B17">
+        <v>711.8925170898438</v>
+      </c>
+      <c r="C17">
+        <v>5258.73681640625</v>
+      </c>
+      <c r="D17">
         <v>374.6959228515625</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>6940.45849609375</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>65.80000305175781</v>
       </c>
       <c r="B18">
+        <v>706.0701904296875</v>
+      </c>
+      <c r="C18">
+        <v>5335.0146484375</v>
+      </c>
+      <c r="D18">
         <v>360.6658325195312</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>6985.67236328125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>69.59999847412109</v>
       </c>
       <c r="B19">
+        <v>699.7157592773438</v>
+      </c>
+      <c r="C19">
+        <v>5404.05126953125</v>
+      </c>
+      <c r="D19">
         <v>347.3106384277344</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>7026.24609375</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>73.40000152587891</v>
       </c>
       <c r="B20">
+        <v>692.9540405273438</v>
+      </c>
+      <c r="C20">
+        <v>5466.95458984375</v>
+      </c>
+      <c r="D20">
         <v>334.5230712890625</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>7062.86328125</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>77.19999694824219</v>
       </c>
       <c r="B21">
+        <v>685.8095703125</v>
+      </c>
+      <c r="C21">
+        <v>5524.35595703125</v>
+      </c>
+      <c r="D21">
         <v>322.20458984375</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>7096.05712890625</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>81</v>
       </c>
       <c r="B22">
+        <v>678.345947265625</v>
+      </c>
+      <c r="C22">
+        <v>5577.0234375</v>
+      </c>
+      <c r="D22">
         <v>310.2698974609375</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>7126.29541015625</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>84.80000305175781</v>
       </c>
       <c r="B23">
+        <v>670.5931396484375</v>
+      </c>
+      <c r="C23">
+        <v>5625.5341796875</v>
+      </c>
+      <c r="D23">
         <v>298.6399536132812</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>7153.93896484375</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>88.59999847412109</v>
       </c>
       <c r="B24">
+        <v>662.5625</v>
+      </c>
+      <c r="C24">
+        <v>5670.34033203125</v>
+      </c>
+      <c r="D24">
         <v>287.2444763183594</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>7179.3056640625</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>92.40000152587891</v>
       </c>
       <c r="B25">
+        <v>654.2606811523438</v>
+      </c>
+      <c r="C25">
+        <v>5711.8447265625</v>
+      </c>
+      <c r="D25">
         <v>276.0208129882812</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>7202.6728515625</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>96.19999694824219</v>
       </c>
       <c r="B26">
+        <v>645.6930541992188</v>
+      </c>
+      <c r="C26">
+        <v>5750.40576171875</v>
+      </c>
+      <c r="D26">
         <v>264.9104919433594</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>7224.25927734375</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>100</v>
       </c>
       <c r="B27">
+        <v>636.8550415039062</v>
+      </c>
+      <c r="C27">
+        <v>5786.31591796875</v>
+      </c>
+      <c r="D27">
         <v>253.8618774414062</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>7244.2626953125</v>
       </c>
     </row>
@@ -1303,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1316,2271 +1490,3729 @@
     <col min="6" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.0001820078598175314</v>
+      </c>
+      <c r="C2">
+        <v>30.0001074122668</v>
+      </c>
+      <c r="D2">
+        <v>20.00000469291293</v>
+      </c>
+      <c r="E2">
         <v>0.0002020524553063296</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>30.00015787433159</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>20.00000165354251</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.25</v>
       </c>
       <c r="B3">
+        <v>823.6034402025207</v>
+      </c>
+      <c r="C3">
+        <v>118.5322673376308</v>
+      </c>
+      <c r="D3">
+        <v>29.97464698685796</v>
+      </c>
+      <c r="E3">
         <v>1009.739455088957</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>110.1274410999939</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>21.48877310486184</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.5</v>
       </c>
       <c r="B4">
+        <v>798.0137657078135</v>
+      </c>
+      <c r="C4">
+        <v>116.5649444363758</v>
+      </c>
+      <c r="D4">
+        <v>29.7557206515417</v>
+      </c>
+      <c r="E4">
         <v>911.0044332775692</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>105.6296128983972</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>21.36770109350443</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.75</v>
       </c>
       <c r="B5">
+        <v>781.8567322391358</v>
+      </c>
+      <c r="C5">
+        <v>115.3104226785728</v>
+      </c>
+      <c r="D5">
+        <v>29.61963094232834</v>
+      </c>
+      <c r="E5">
         <v>858.7414695366165</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>103.1629351045785</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>21.30337796195002</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
+        <v>770.0251759889117</v>
+      </c>
+      <c r="C6">
+        <v>114.3862005608025</v>
+      </c>
+      <c r="D6">
+        <v>29.52056238089003</v>
+      </c>
+      <c r="E6">
         <v>823.9292197556756</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>101.4834243142398</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>21.26038716032836</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1.25</v>
       </c>
       <c r="B7">
+        <v>760.7300830276426</v>
+      </c>
+      <c r="C7">
+        <v>113.6569521045194</v>
+      </c>
+      <c r="D7">
+        <v>29.44294323566011</v>
+      </c>
+      <c r="E7">
         <v>798.2629050567546</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>100.2252242862492</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>21.22860437405011</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1.5</v>
       </c>
       <c r="B8">
+        <v>753.167488970157</v>
+      </c>
+      <c r="C8">
+        <v>113.0616299052161</v>
+      </c>
+      <c r="D8">
+        <v>29.37986608964744</v>
+      </c>
+      <c r="E8">
         <v>778.405879752083</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>99.23961205698367</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>21.20396429617569</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1.75</v>
       </c>
       <c r="B9">
+        <v>746.74936890451</v>
+      </c>
+      <c r="C9">
+        <v>112.5550042742745</v>
+      </c>
+      <c r="D9">
+        <v>29.3263645336678</v>
+      </c>
+      <c r="E9">
         <v>762.1653282195654</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>98.42529017846283</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>21.18377368270798</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
+        <v>741.1786877046931</v>
+      </c>
+      <c r="C10">
+        <v>112.1142425388405</v>
+      </c>
+      <c r="D10">
+        <v>29.27993393793137</v>
+      </c>
+      <c r="E10">
         <v>748.4827996538781</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>97.73331134159201</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>21.16673220298665</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2.25</v>
       </c>
       <c r="B11">
+        <v>736.292618393984</v>
+      </c>
+      <c r="C11">
+        <v>111.7268596465942</v>
+      </c>
+      <c r="D11">
+        <v>29.23920800329162</v>
+      </c>
+      <c r="E11">
         <v>736.8049977957482</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>97.13832096707017</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>21.15216295939903</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2.5</v>
       </c>
       <c r="B12">
-        <v>726.5800385269657</v>
+        <v>731.9201375584826</v>
       </c>
       <c r="C12">
+        <v>111.3795835763405</v>
+      </c>
+      <c r="D12">
+        <v>29.20274928101412</v>
+      </c>
+      <c r="E12">
+        <v>726.5800385266815</v>
+      </c>
+      <c r="F12">
         <v>96.61394153617016</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>21.13939209369875</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2.75</v>
       </c>
       <c r="B13">
+        <v>727.964167131144</v>
+      </c>
+      <c r="C13">
+        <v>111.0648800915541</v>
+      </c>
+      <c r="D13">
+        <v>29.16975462153284</v>
+      </c>
+      <c r="E13">
         <v>717.4989772999669</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>96.14550683034099</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>21.12803163739871</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
+        <v>724.3706319815369</v>
+      </c>
+      <c r="C14">
+        <v>110.7785947168628</v>
+      </c>
+      <c r="D14">
+        <v>29.1397704500681</v>
+      </c>
+      <c r="E14">
         <v>709.4000563488028</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>95.72552995080719</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>21.11788943302407</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>3.25</v>
       </c>
       <c r="B15">
+        <v>721.0666090664627</v>
+      </c>
+      <c r="C15">
+        <v>110.5150389283199</v>
+      </c>
+      <c r="D15">
+        <v>29.11218196351012</v>
+      </c>
+      <c r="E15">
         <v>702.0652008625281</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>95.34335425607145</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>21.108691937277</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>3.5</v>
       </c>
       <c r="B16">
+        <v>718.0083872610703</v>
+      </c>
+      <c r="C16">
+        <v>110.2707813009542</v>
+      </c>
+      <c r="D16">
+        <v>29.08664054769853</v>
+      </c>
+      <c r="E16">
         <v>695.3652757700148</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>94.99272124002886</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>21.10028368559506</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3.75</v>
       </c>
       <c r="B17">
+        <v>715.1732670957271</v>
+      </c>
+      <c r="C17">
+        <v>110.0440876194734</v>
+      </c>
+      <c r="D17">
+        <v>29.06295054910543</v>
+      </c>
+      <c r="E17">
         <v>689.238075221108</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>94.6707598474801</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>21.09258494570174</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18">
+        <v>712.5238449904419</v>
+      </c>
+      <c r="C18">
+        <v>109.8320281966072</v>
+      </c>
+      <c r="D18">
+        <v>29.04079639294236</v>
+      </c>
+      <c r="E18">
         <v>683.5764548298069</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>94.37214175763887</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>21.08546433177219</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>4.25</v>
       </c>
       <c r="B19">
+        <v>710.0355342026643</v>
+      </c>
+      <c r="C19">
+        <v>109.6326575971378</v>
+      </c>
+      <c r="D19">
+        <v>29.01998511859244</v>
+      </c>
+      <c r="E19">
         <v>678.314693359877</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>94.09363499096747</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>21.07884176506924</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>4.5</v>
       </c>
       <c r="B20">
+        <v>707.6991694997406</v>
+      </c>
+      <c r="C20">
+        <v>109.4452979463067</v>
+      </c>
+      <c r="D20">
+        <v>29.00042941897188</v>
+      </c>
+      <c r="E20">
         <v>673.424407167779</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>93.83393257820592</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>21.07268447393879</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>4.75</v>
       </c>
       <c r="B21">
+        <v>705.4900718093299</v>
+      </c>
+      <c r="C21">
+        <v>109.2679773762852</v>
+      </c>
+      <c r="D21">
+        <v>28.98193694763791</v>
+      </c>
+      <c r="E21">
         <v>668.8455577747675</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>93.59002144932793</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>21.06690984421338</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22">
+        <v>703.3963838065364</v>
+      </c>
+      <c r="C22">
+        <v>109.099800304359</v>
+      </c>
+      <c r="D22">
+        <v>28.96439143687786</v>
+      </c>
+      <c r="E22">
         <v>664.5385675364372</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>93.35991676038014</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>21.06147614361221</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>5.25</v>
       </c>
       <c r="B23">
+        <v>701.4108891630181</v>
+      </c>
+      <c r="C23">
+        <v>108.9401669520648</v>
+      </c>
+      <c r="D23">
+        <v>28.94775715441</v>
+      </c>
+      <c r="E23">
         <v>660.4923625365675</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>93.14314488818178</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>21.05636798630499</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>5.5</v>
       </c>
       <c r="B24">
+        <v>699.5207530479245</v>
+      </c>
+      <c r="C24">
+        <v>108.7881154149551</v>
+      </c>
+      <c r="D24">
+        <v>28.93189817898298</v>
+      </c>
+      <c r="E24">
         <v>656.6660637325142</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>92.93761477801462</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>21.05153433292396</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5.75</v>
       </c>
       <c r="B25">
+        <v>697.7145723478978</v>
+      </c>
+      <c r="C25">
+        <v>108.6426967647787</v>
+      </c>
+      <c r="D25">
+        <v>28.91674651060406</v>
+      </c>
+      <c r="E25">
         <v>653.0372745642985</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>92.7422066510992</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>21.04694622284196</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26">
+        <v>695.9909560017967</v>
+      </c>
+      <c r="C26">
+        <v>108.5038329052856</v>
+      </c>
+      <c r="D26">
+        <v>28.90227980281329</v>
+      </c>
+      <c r="E26">
         <v>649.598510450338</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>92.55659010061845</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>21.04259461669084</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>6.25</v>
       </c>
       <c r="B27">
+        <v>694.3390952924484</v>
+      </c>
+      <c r="C27">
+        <v>108.3706652593851</v>
+      </c>
+      <c r="D27">
+        <v>28.88840805561739</v>
+      </c>
+      <c r="E27">
         <v>646.3241458054853</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>92.37944109624613</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>21.03845082155456</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>6.5</v>
       </c>
       <c r="B28">
+        <v>692.7524793377006</v>
+      </c>
+      <c r="C28">
+        <v>108.2426697417498</v>
+      </c>
+      <c r="D28">
+        <v>28.87508265484625</v>
+      </c>
+      <c r="E28">
         <v>643.1985012834502</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>92.20997146754934</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>21.03449049097838</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>6.75</v>
       </c>
       <c r="B29">
+        <v>691.2304861071606</v>
+      </c>
+      <c r="C29">
+        <v>108.1198211213491</v>
+      </c>
+      <c r="D29">
+        <v>28.86229021467392</v>
+      </c>
+      <c r="E29">
         <v>640.2189656362203</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>92.04808437522865</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>21.03071362496464</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30">
+        <v>689.7657223167771</v>
+      </c>
+      <c r="C30">
+        <v>108.0015342777045</v>
+      </c>
+      <c r="D30">
+        <v>28.8499674280169</v>
+      </c>
+      <c r="E30">
         <v>637.3654324231229</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>91.89273164872787</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>21.02709422351264</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>7.25</v>
       </c>
       <c r="B31">
+        <v>688.352160311799</v>
+      </c>
+      <c r="C31">
+        <v>107.8873062716334</v>
+      </c>
+      <c r="D31">
+        <v>28.83807733424934</v>
+      </c>
+      <c r="E31">
         <v>634.6277172604669</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>91.74338920271214</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>21.02362455433584</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>7.5</v>
       </c>
       <c r="B32">
+        <v>686.9901859788192</v>
+      </c>
+      <c r="C32">
+        <v>107.7771822786773</v>
+      </c>
+      <c r="D32">
+        <v>28.82661950816963</v>
+      </c>
+      <c r="E32">
         <v>632.0040037280826</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>91.60000537356734</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>21.02029234972301</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>7.75</v>
       </c>
       <c r="B33">
+        <v>685.6743715330419</v>
+      </c>
+      <c r="C33">
+        <v>107.6707509123468</v>
+      </c>
+      <c r="D33">
+        <v>28.81553672144013</v>
+      </c>
+      <c r="E33">
         <v>629.4806931668292</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>91.46185831247931</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>21.0170875309322</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>8</v>
       </c>
       <c r="B34">
+        <v>684.4010306932538</v>
+      </c>
+      <c r="C34">
+        <v>107.5676964238966</v>
+      </c>
+      <c r="D34">
+        <v>28.80481124177492</v>
+      </c>
+      <c r="E34">
         <v>627.0514231599702</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>91.32863227065451</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>21.01399783024894</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>8.25</v>
       </c>
       <c r="B35">
+        <v>683.1697062937324</v>
+      </c>
+      <c r="C35">
+        <v>107.4679935821981</v>
+      </c>
+      <c r="D35">
+        <v>28.79443576208815</v>
+      </c>
+      <c r="E35">
         <v>624.7125232390962</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>91.20013885613923</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>21.0110275153868</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>8.5</v>
       </c>
       <c r="B36">
+        <v>681.9758791385202</v>
+      </c>
+      <c r="C36">
+        <v>107.3712814629097</v>
+      </c>
+      <c r="D36">
+        <v>28.78437228238636</v>
+      </c>
+      <c r="E36">
         <v>622.4549899945075</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>91.07592030529338</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>21.00815431863365</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8.75</v>
       </c>
       <c r="B37">
+        <v>680.8172059412466</v>
+      </c>
+      <c r="C37">
+        <v>107.2773716740456</v>
+      </c>
+      <c r="D37">
+        <v>28.7746028026647</v>
+      </c>
+      <c r="E37">
         <v>620.2739710480864</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>90.9557219044475</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>21.00537781478928</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>9</v>
       </c>
       <c r="B38">
+        <v>679.6940206749207</v>
+      </c>
+      <c r="C38">
+        <v>107.1863000197039</v>
+      </c>
+      <c r="D38">
+        <v>28.76512766938211</v>
+      </c>
+      <c r="E38">
         <v>618.1679488563404</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <v>90.839477331995</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>21.00269704322393</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>9.25</v>
       </c>
       <c r="B39">
+        <v>678.6022139972082</v>
+      </c>
+      <c r="C39">
+        <v>107.0977308065408</v>
+      </c>
+      <c r="D39">
+        <v>28.75591584316989</v>
+      </c>
+      <c r="E39">
         <v>616.1286702955698</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <v>90.72674997031714</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>21.00010000394039</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>9.5</v>
       </c>
       <c r="B40">
+        <v>677.5398172850203</v>
+      </c>
+      <c r="C40">
+        <v>107.0115114467177</v>
+      </c>
+      <c r="D40">
+        <v>28.74694870985713</v>
+      </c>
+      <c r="E40">
         <v>614.151969378045</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <v>90.61732499486288</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>20.99758104339501</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>9.75</v>
       </c>
       <c r="B41">
+        <v>676.5076123290213</v>
+      </c>
+      <c r="C41">
+        <v>106.9277176333635</v>
+      </c>
+      <c r="D41">
+        <v>28.73822792298826</v>
+      </c>
+      <c r="E41">
         <v>612.2388199702157</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <v>90.5112687273184</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>20.99514277575982</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>10</v>
       </c>
       <c r="B42">
+        <v>675.5022828790188</v>
+      </c>
+      <c r="C42">
+        <v>106.846060050283</v>
+      </c>
+      <c r="D42">
+        <v>28.72973844318911</v>
+      </c>
+      <c r="E42">
         <v>610.3828962183804</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <v>90.40824547431868</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>20.99277589394774</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>10.25</v>
       </c>
       <c r="B43">
+        <v>674.5221410932053</v>
+      </c>
+      <c r="C43">
+        <v>106.7664272002226</v>
+      </c>
+      <c r="D43">
+        <v>28.72145330983527</v>
+      </c>
+      <c r="E43">
         <v>608.5786048180594</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <v>90.30795534667436</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>20.99047405150374</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>10.5</v>
       </c>
       <c r="B44">
+        <v>673.5674357438958</v>
+      </c>
+      <c r="C44">
+        <v>106.6888337412037</v>
+      </c>
+      <c r="D44">
+        <v>28.71337921584149</v>
+      </c>
+      <c r="E44">
         <v>606.8285109011891</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <v>90.21055501718826</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>20.98823828780028</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>10.75</v>
       </c>
       <c r="B45">
+        <v>672.6357500276347</v>
+      </c>
+      <c r="C45">
+        <v>106.6130713367194</v>
+      </c>
+      <c r="D45">
+        <v>28.7055037360062</v>
+      </c>
+      <c r="E45">
         <v>605.124708039673</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <v>90.11560786836918</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>20.98606356346305</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>11</v>
       </c>
       <c r="B46">
+        <v>671.72610069933</v>
+      </c>
+      <c r="C46">
+        <v>106.5390789516103</v>
+      </c>
+      <c r="D46">
+        <v>28.69780929553047</v>
+      </c>
+      <c r="E46">
         <v>603.4678942096286</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <v>90.0231696487848</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>20.98394518558084</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>11.25</v>
       </c>
       <c r="B47">
+        <v>670.8387988349106</v>
+      </c>
+      <c r="C47">
+        <v>106.4668871034522</v>
+      </c>
+      <c r="D47">
+        <v>28.69029685504485</v>
+      </c>
+      <c r="E47">
         <v>601.8562405823436</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <v>89.93313823268505</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>20.981887500608</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>11.5</v>
       </c>
       <c r="B48">
+        <v>669.9707570489443</v>
+      </c>
+      <c r="C48">
+        <v>106.3962211340719</v>
+      </c>
+      <c r="D48">
+        <v>28.68295441454885</v>
+      </c>
+      <c r="E48">
         <v>600.2847237931753</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <v>89.84524953495281</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>20.97987789437706</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>11.75</v>
       </c>
       <c r="B49">
+        <v>669.122525933831</v>
+      </c>
+      <c r="C49">
+        <v>106.3271673096676</v>
+      </c>
+      <c r="D49">
+        <v>28.67576466695784</v>
+      </c>
+      <c r="E49">
         <v>598.753123877666</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <v>89.75949298255165</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>20.97792028814203</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>12</v>
       </c>
       <c r="B50">
+        <v>668.2935526373499</v>
+      </c>
+      <c r="C50">
+        <v>106.2596446505616</v>
+      </c>
+      <c r="D50">
+        <v>28.66874387998418</v>
+      </c>
+      <c r="E50">
         <v>597.2601508337539</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <v>89.6758075403003</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>20.97601006773252</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>12.25</v>
       </c>
       <c r="B51">
+        <v>667.4816500279005</v>
+      </c>
+      <c r="C51">
+        <v>106.1934899958258</v>
+      </c>
+      <c r="D51">
+        <v>28.66186613237383</v>
+      </c>
+      <c r="E51">
         <v>595.804035328583</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <v>89.59409636895924</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>20.97414819377804</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>12.5</v>
       </c>
       <c r="B52">
+        <v>666.6869841134646</v>
+      </c>
+      <c r="C52">
+        <v>106.1287192050187</v>
+      </c>
+      <c r="D52">
+        <v>28.65513238475403</v>
+      </c>
+      <c r="E52">
         <v>594.3812036243999</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <v>89.51416699159159</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>20.97232866627711</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>12.75</v>
       </c>
       <c r="B53">
-        <v>592.9926266640457</v>
+        <v>665.9090469523037</v>
       </c>
       <c r="C53">
+        <v>106.0652911875425</v>
+      </c>
+      <c r="D53">
+        <v>28.64853898358389</v>
+      </c>
+      <c r="E53">
+        <v>592.992626664015</v>
+      </c>
+      <c r="F53">
         <v>89.43608452830642</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>20.97054921751887</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>13</v>
       </c>
       <c r="B54">
+        <v>665.1469088006287</v>
+      </c>
+      <c r="C54">
+        <v>106.0031396217195</v>
+      </c>
+      <c r="D54">
+        <v>28.64207358240539</v>
+      </c>
+      <c r="E54">
         <v>591.6355839639141</v>
       </c>
-      <c r="C54">
+      <c r="F54">
         <v>89.35969639124977</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>20.96881011521391</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>13.25</v>
       </c>
       <c r="B55">
+        <v>664.4001662752723</v>
+      </c>
+      <c r="C55">
+        <v>105.9422339899637</v>
+      </c>
+      <c r="D55">
+        <v>28.63573218122006</v>
+      </c>
+      <c r="E55">
         <v>590.3076261860887</v>
       </c>
-      <c r="C55">
+      <c r="F55">
         <v>89.28486585211323</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>20.96711101290697</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>13.5</v>
       </c>
       <c r="B56">
+        <v>663.6678232662765</v>
+      </c>
+      <c r="C56">
+        <v>105.8824680815457</v>
+      </c>
+      <c r="D56">
+        <v>28.62952078002444</v>
+      </c>
+      <c r="E56">
         <v>589.0103893948873</v>
       </c>
-      <c r="C56">
+      <c r="F56">
         <v>89.21169912159678</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>20.96544729642646</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>13.75</v>
       </c>
       <c r="B57">
+        <v>662.9496280726765</v>
+      </c>
+      <c r="C57">
+        <v>105.8238512679508</v>
+      </c>
+      <c r="D57">
+        <v>28.62342137882314</v>
+      </c>
+      <c r="E57">
         <v>587.7412751740599</v>
       </c>
-      <c r="C57">
+      <c r="F57">
         <v>89.14004889834854</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>20.96381957994569</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>14</v>
       </c>
       <c r="B58">
+        <v>662.2439987708173</v>
+      </c>
+      <c r="C58">
+        <v>105.7662268763267</v>
+      </c>
+      <c r="D58">
+        <v>28.61743632407268</v>
+      </c>
+      <c r="E58">
         <v>586.4985765697737</v>
       </c>
-      <c r="C58">
+      <c r="F58">
         <v>89.06982362968176</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>20.96222524928966</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>14.25</v>
       </c>
       <c r="B59">
+        <v>661.5524939941338</v>
+      </c>
+      <c r="C59">
+        <v>105.709756866061</v>
+      </c>
+      <c r="D59">
+        <v>28.61156030868607</v>
+      </c>
+      <c r="E59">
         <v>585.282239029899</v>
       </c>
-      <c r="C59">
+      <c r="F59">
         <v>89.00102331555763</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>20.96066491863131</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>14.5</v>
       </c>
       <c r="B60">
+        <v>660.8736388331142</v>
+      </c>
+      <c r="C60">
+        <v>105.6542992222953</v>
+      </c>
+      <c r="D60">
+        <v>28.60579325392024</v>
+      </c>
+      <c r="E60">
         <v>584.0904979162733</v>
       </c>
-      <c r="C60">
+      <c r="F60">
         <v>88.93355111674367</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>20.95913693442895</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>14.75</v>
       </c>
       <c r="B61">
+        <v>660.2061056025489</v>
+      </c>
+      <c r="C61">
+        <v>105.5997518192648</v>
+      </c>
+      <c r="D61">
+        <v>28.60012089206578</v>
+      </c>
+      <c r="E61">
         <v>582.9216554744944</v>
       </c>
-      <c r="C61">
+      <c r="F61">
         <v>88.86731548051381</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>20.95763833605281</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>15</v>
       </c>
       <c r="B62">
+        <v>659.5510559271017</v>
+      </c>
+      <c r="C62">
+        <v>105.5462114962448</v>
+      </c>
+      <c r="D62">
+        <v>28.59455253020255</v>
+      </c>
+      <c r="E62">
         <v>581.778230204707</v>
       </c>
-      <c r="C62">
+      <c r="F62">
         <v>88.80246899475998</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>20.95616773767637</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>15.25</v>
       </c>
       <c r="B63">
+        <v>658.9070922247505</v>
+      </c>
+      <c r="C63">
+        <v>105.4935614694212</v>
+      </c>
+      <c r="D63">
+        <v>28.58907816833404</v>
+      </c>
+      <c r="E63">
         <v>580.6555846984063</v>
       </c>
-      <c r="C63">
+      <c r="F63">
         <v>88.73874228778089</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>20.95472617866881</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>15.5</v>
       </c>
       <c r="B64">
+        <v>658.273824151511</v>
+      </c>
+      <c r="C64">
+        <v>105.441771221223</v>
+      </c>
+      <c r="D64">
+        <v>28.58369415291671</v>
+      </c>
+      <c r="E64">
         <v>579.5540982651652</v>
       </c>
-      <c r="C64">
+      <c r="F64">
         <v>88.67616059068018</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>20.95331358028951</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>15.75</v>
       </c>
       <c r="B65">
+        <v>657.6519298788384</v>
+      </c>
+      <c r="C65">
+        <v>105.3909111583327</v>
+      </c>
+      <c r="D65">
+        <v>28.5783984839511</v>
+      </c>
+      <c r="E65">
         <v>578.4736061776564</v>
       </c>
-      <c r="C65">
+      <c r="F65">
         <v>88.61472390342357</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>20.95192506065061</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>16</v>
       </c>
       <c r="B66">
+        <v>657.0395400707546</v>
+      </c>
+      <c r="C66">
+        <v>105.3407940902772</v>
+      </c>
+      <c r="D66">
+        <v>28.57319446852184</v>
+      </c>
+      <c r="E66">
         <v>577.4138778293815</v>
       </c>
-      <c r="C66">
+      <c r="F66">
         <v>88.55442165301037</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>20.95056054101024</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>16.25</v>
       </c>
       <c r="B67">
+        <v>656.4369572396459</v>
+      </c>
+      <c r="C67">
+        <v>105.2914810522217</v>
+      </c>
+      <c r="D67">
+        <v>28.56806514600336</v>
+      </c>
+      <c r="E67">
         <v>576.372293863463</v>
       </c>
-      <c r="C67">
+      <c r="F67">
         <v>88.49509716651141</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>20.94922402136739</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>16.5</v>
       </c>
       <c r="B68">
+        <v>655.8447349359087</v>
+      </c>
+      <c r="C68">
+        <v>105.2430066467125</v>
+      </c>
+      <c r="D68">
+        <v>28.56302147702332</v>
+      </c>
+      <c r="E68">
         <v>575.350607253033</v>
       </c>
-      <c r="C68">
+      <c r="F68">
         <v>88.43686602626371</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>20.94790819464002</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>16.75</v>
       </c>
       <c r="B69">
+        <v>655.2614820786032</v>
+      </c>
+      <c r="C69">
+        <v>105.1952500049964</v>
+      </c>
+      <c r="D69">
+        <v>28.55805580803661</v>
+      </c>
+      <c r="E69">
         <v>574.3461471081166</v>
       </c>
-      <c r="C69">
+      <c r="F69">
         <v>88.37956627279942</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>20.94661836790896</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>17</v>
       </c>
       <c r="B70">
+        <v>654.6869304217732</v>
+      </c>
+      <c r="C70">
+        <v>105.1481952675218</v>
+      </c>
+      <c r="D70">
+        <v>28.55316283196017</v>
+      </c>
+      <c r="E70">
         <v>573.3590287094547</v>
       </c>
-      <c r="C70">
+      <c r="F70">
         <v>88.32321376574868</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>20.94534958054942</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>17.25</v>
       </c>
       <c r="B71">
+        <v>654.1220041584911</v>
+      </c>
+      <c r="C71">
+        <v>105.1019234139775</v>
+      </c>
+      <c r="D71">
+        <v>28.54834785587889</v>
+      </c>
+      <c r="E71">
         <v>572.3895673976966</v>
       </c>
-      <c r="C71">
+      <c r="F71">
         <v>88.26783253459905</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>20.94409948610261</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>17.5</v>
       </c>
       <c r="B72">
+        <v>653.5654643014288</v>
+      </c>
+      <c r="C72">
+        <v>105.0563282336004</v>
+      </c>
+      <c r="D72">
+        <v>28.54360322624972</v>
+      </c>
+      <c r="E72">
         <v>571.4365515209441</v>
       </c>
-      <c r="C72">
+      <c r="F72">
         <v>88.2133468861673</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>20.94287269874088</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>17.75</v>
       </c>
       <c r="B73">
+        <v>653.0166227708605</v>
+      </c>
+      <c r="C73">
+        <v>105.0113486912484</v>
+      </c>
+      <c r="D73">
+        <v>28.53892590370314</v>
+      </c>
+      <c r="E73">
         <v>570.4984241378114</v>
       </c>
-      <c r="C73">
+      <c r="F73">
         <v>88.15967055427865</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>20.94166660429159</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>18</v>
       </c>
       <c r="B74">
+        <v>652.4763203189664</v>
+      </c>
+      <c r="C74">
+        <v>104.9670604801138</v>
+      </c>
+      <c r="D74">
+        <v>28.53431962052228</v>
+      </c>
+      <c r="E74">
         <v>569.5767473092242</v>
       </c>
-      <c r="C74">
+      <c r="F74">
         <v>88.10690037813515</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>20.94047920275563</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>18.25</v>
       </c>
       <c r="B75">
+        <v>651.9435559282094</v>
+      </c>
+      <c r="C75">
+        <v>104.9233732489541</v>
+      </c>
+      <c r="D75">
+        <v>28.52978064442402</v>
+      </c>
+      <c r="E75">
         <v>568.6695650282702</v>
       </c>
-      <c r="C75">
+      <c r="F75">
         <v>88.05492365898573</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>20.93930980121885</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>18.5</v>
       </c>
       <c r="B76">
+        <v>651.4184634559042</v>
+      </c>
+      <c r="C76">
+        <v>104.880316313866</v>
+      </c>
+      <c r="D76">
+        <v>28.52530036123524</v>
+      </c>
+      <c r="E76">
         <v>567.7764806893933</v>
       </c>
-      <c r="C76">
+      <c r="F76">
         <v>88.00372045224941</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>20.938157092596</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>18.75</v>
       </c>
       <c r="B77">
+        <v>650.9008858599675</v>
+      </c>
+      <c r="C77">
+        <v>104.8378644437876</v>
+      </c>
+      <c r="D77">
+        <v>28.5208844245</v>
+      </c>
+      <c r="E77">
         <v>566.8977788601089</v>
       </c>
-      <c r="C77">
+      <c r="F77">
         <v>87.95330133098435</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>20.93702673042772</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>19</v>
       </c>
       <c r="B78">
+        <v>650.3905804141275</v>
+      </c>
+      <c r="C78">
+        <v>104.7960029806464</v>
+      </c>
+      <c r="D78">
+        <v>28.516528141305</v>
+      </c>
+      <c r="E78">
         <v>566.0329171710522</v>
       </c>
-      <c r="C78">
+      <c r="F78">
         <v>87.90364514911045</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>20.93591202180161</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>19.25</v>
       </c>
       <c r="B79">
+        <v>649.8868100231354</v>
+      </c>
+      <c r="C79">
+        <v>104.754660316292</v>
+      </c>
+      <c r="D79">
+        <v>28.51223151164751</v>
+      </c>
+      <c r="E79">
         <v>565.181042555684</v>
       </c>
-      <c r="C79">
+      <c r="F79">
         <v>87.8547014445133</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>20.93481400609043</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>19.5</v>
       </c>
       <c r="B80">
+        <v>649.3903976941231</v>
+      </c>
+      <c r="C80">
+        <v>104.7139227169589</v>
+      </c>
+      <c r="D80">
+        <v>28.50799157490172</v>
+      </c>
+      <c r="E80">
         <v>564.3422589590186</v>
       </c>
-      <c r="C80">
+      <c r="F80">
         <v>87.80647550371691</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>20.93373433683352</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>19.75</v>
       </c>
       <c r="B81">
+        <v>648.9005208168755</v>
+      </c>
+      <c r="C81">
+        <v>104.6737144893954</v>
+      </c>
+      <c r="D81">
+        <v>28.5038059846095</v>
+      </c>
+      <c r="E81">
         <v>563.5157474730082</v>
       </c>
-      <c r="C81">
+      <c r="F81">
         <v>87.75892623610298</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>20.93266866757636</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>20</v>
       </c>
       <c r="B82">
+        <v>648.4167489902603</v>
+      </c>
+      <c r="C82">
+        <v>104.633994543064</v>
+      </c>
+      <c r="D82">
+        <v>28.49967439431367</v>
+      </c>
+      <c r="E82">
         <v>562.7019687126917</v>
       </c>
-      <c r="C82">
+      <c r="F82">
         <v>87.71208415922911</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>20.93161569123343</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>20.25</v>
       </c>
       <c r="B83">
+        <v>647.9396926717731</v>
+      </c>
+      <c r="C83">
+        <v>104.5948186265777</v>
+      </c>
+      <c r="D83">
+        <v>28.49559915047143</v>
+      </c>
+      <c r="E83">
         <v>561.8995316620292</v>
       </c>
-      <c r="C83">
+      <c r="F83">
         <v>87.66585772043265</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>20.93058271488923</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>20.5</v>
       </c>
       <c r="B84">
-        <v>561.1085833010541</v>
+        <v>647.4684487752457</v>
       </c>
       <c r="C84">
+        <v>104.5561110467469</v>
+      </c>
+      <c r="D84">
+        <v>28.49157356016742</v>
+      </c>
+      <c r="E84">
+        <v>561.1085833010554</v>
+      </c>
+      <c r="F84">
         <v>87.62026806569429</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>20.929561738543</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>20.75</v>
       </c>
       <c r="B85">
+        <v>647.003428053124</v>
+      </c>
+      <c r="C85">
+        <v>104.5179116926707</v>
+      </c>
+      <c r="D85">
+        <v>28.48759796986254</v>
+      </c>
+      <c r="E85">
         <v>560.329579005612</v>
       </c>
-      <c r="C85">
+      <c r="F85">
         <v>87.5753392246192</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>20.92855580156763</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>21</v>
       </c>
       <c r="B86">
-        <v>559.5609007951326</v>
+        <v>646.5439684708557</v>
       </c>
       <c r="C86">
+        <v>104.4801554442057</v>
+      </c>
+      <c r="D86">
+        <v>28.48367272601052</v>
+      </c>
+      <c r="E86">
+        <v>559.560900795018</v>
+      </c>
+      <c r="F86">
         <v>87.53098084597269</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>20.92756151813689</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>21.25</v>
       </c>
       <c r="B87">
+        <v>646.0909601609377</v>
+      </c>
+      <c r="C87">
+        <v>104.4429273660246</v>
+      </c>
+      <c r="D87">
+        <v>28.47979913569795</v>
+      </c>
+      <c r="E87">
         <v>558.8032308127396</v>
       </c>
-      <c r="C87">
+      <c r="F87">
         <v>87.48722753232335</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>20.92658392761753</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>21.5</v>
       </c>
       <c r="B88">
+        <v>645.6430200564479</v>
+      </c>
+      <c r="C88">
+        <v>104.4061118758761</v>
+      </c>
+      <c r="D88">
+        <v>28.47596658475409</v>
+      </c>
+      <c r="E88">
         <v>558.0562248431097</v>
       </c>
-      <c r="C88">
+      <c r="F88">
         <v>87.44406462565144</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>20.92561964418319</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>21.75</v>
       </c>
       <c r="B89">
+        <v>645.2001080421555</v>
+      </c>
+      <c r="C89">
+        <v>104.3696931142305</v>
+      </c>
+      <c r="D89">
+        <v>28.4721816873488</v>
+      </c>
+      <c r="E89">
         <v>557.3183654273255</v>
       </c>
-      <c r="C89">
+      <c r="F89">
         <v>87.40140585974444</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>20.92466640011958</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>22</v>
       </c>
       <c r="B90">
+        <v>644.7633982092503</v>
+      </c>
+      <c r="C90">
+        <v>104.3337931513312</v>
+      </c>
+      <c r="D90">
+        <v>28.46844078994391</v>
+      </c>
+      <c r="E90">
         <v>556.5905057512522</v>
       </c>
-      <c r="C90">
+      <c r="F90">
         <v>87.3593016967065</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>20.92372515605629</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>22.25</v>
       </c>
       <c r="B91">
+        <v>644.3313911869302</v>
+      </c>
+      <c r="C91">
+        <v>104.2982646858694</v>
+      </c>
+      <c r="D91">
+        <v>28.4647442389902</v>
+      </c>
+      <c r="E91">
         <v>555.8731959629541</v>
       </c>
-      <c r="C91">
+      <c r="F91">
         <v>87.31778265412061</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>20.9227982584484</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>22.5</v>
       </c>
       <c r="B92">
+        <v>643.9044407157656</v>
+      </c>
+      <c r="C92">
+        <v>104.263147606928</v>
+      </c>
+      <c r="D92">
+        <v>28.46108934157941</v>
+      </c>
+      <c r="E92">
         <v>555.1648810308692</v>
       </c>
-      <c r="C92">
+      <c r="F92">
         <v>87.2767624658054</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>20.92188170729674</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>22.75</v>
       </c>
       <c r="B93">
+        <v>643.4824187124406</v>
+      </c>
+      <c r="C93">
+        <v>104.2284178849393</v>
+      </c>
+      <c r="D93">
+        <v>28.45748244416396</v>
+      </c>
+      <c r="E93">
         <v>554.4663331605436</v>
       </c>
-      <c r="C93">
+      <c r="F93">
         <v>87.23628630732162</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>20.92097680968888</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>23</v>
       </c>
       <c r="B94">
+        <v>643.0653806924291</v>
+      </c>
+      <c r="C94">
+        <v>104.1941101224807</v>
+      </c>
+      <c r="D94">
+        <v>28.45390789320358</v>
+      </c>
+      <c r="E94">
         <v>553.7753149767698</v>
       </c>
-      <c r="C94">
+      <c r="F94">
         <v>87.19621745037711</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>20.92008625853515</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>23.25</v>
       </c>
       <c r="B95">
+        <v>642.6532078547508</v>
+      </c>
+      <c r="C95">
+        <v>104.1601938020219</v>
+      </c>
+      <c r="D95">
+        <v>28.45037603515559</v>
+      </c>
+      <c r="E95">
         <v>553.0933878891981</v>
       </c>
-      <c r="C95">
+      <c r="F95">
         <v>87.15665802069225</v>
       </c>
-      <c r="D95">
+      <c r="G95">
         <v>20.91920440029716</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>23.5</v>
       </c>
       <c r="B96">
+        <v>642.2453803225217</v>
+      </c>
+      <c r="C96">
+        <v>104.1266237479111</v>
+      </c>
+      <c r="D96">
+        <v>28.4468838306469</v>
+      </c>
+      <c r="E96">
         <v>552.420764232552</v>
       </c>
-      <c r="C96">
+      <c r="F96">
         <v>87.1176173898038</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>20.91833419560069</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>23.75</v>
       </c>
       <c r="B97">
+        <v>641.8422776866418</v>
+      </c>
+      <c r="C97">
+        <v>104.0934398492186</v>
+      </c>
+      <c r="D97">
+        <v>28.44342997259393</v>
+      </c>
+      <c r="E97">
         <v>551.7562840027221</v>
       </c>
-      <c r="C97">
+      <c r="F97">
         <v>87.0790292360291</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>20.91747399090394</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>24</v>
       </c>
       <c r="B98">
+        <v>641.4434310589226</v>
+      </c>
+      <c r="C98">
+        <v>104.0605969304306</v>
+      </c>
+      <c r="D98">
+        <v>28.44001411453711</v>
+      </c>
+      <c r="E98">
         <v>551.1002650710521</v>
       </c>
-      <c r="C98">
+      <c r="F98">
         <v>87.04091470544603</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>20.91662282557789</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>24.25</v>
       </c>
       <c r="B99">
-        <v>550.4515136715928</v>
+        <v>641.0490983724698</v>
       </c>
       <c r="C99">
+        <v>104.0281255090372</v>
+      </c>
+      <c r="D99">
+        <v>28.43663356356483</v>
+      </c>
+      <c r="E99">
+        <v>550.4515136715956</v>
+      </c>
+      <c r="F99">
         <v>87.00319690336585</v>
       </c>
-      <c r="D99">
+      <c r="G99">
         <v>20.91578496733729</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>24.5</v>
       </c>
       <c r="B100">
+        <v>640.6589456365053</v>
+      </c>
+      <c r="C100">
+        <v>103.9959897809608</v>
+      </c>
+      <c r="D100">
+        <v>28.43329005196012</v>
+      </c>
+      <c r="E100">
         <v>549.8104516310775</v>
       </c>
-      <c r="C100">
+      <c r="F100">
         <v>86.96591163383204</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>20.91495345555301</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>24.75</v>
       </c>
       <c r="B101">
+        <v>640.27316383891</v>
+      </c>
+      <c r="C101">
+        <v>103.9642149772686</v>
+      </c>
+      <c r="D101">
+        <v>28.42998019389834</v>
+      </c>
+      <c r="E101">
         <v>549.1773446201272</v>
       </c>
-      <c r="C101">
+      <c r="F101">
         <v>86.92906418344154</v>
       </c>
-      <c r="D101">
+      <c r="G101">
         <v>20.91413629022381</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>25</v>
       </c>
       <c r="B102">
+        <v>639.8913666734757</v>
+      </c>
+      <c r="C102">
+        <v>103.93275592239</v>
+      </c>
+      <c r="D102">
+        <v>28.42670798937628</v>
+      </c>
+      <c r="E102">
         <v>548.5515643428226</v>
       </c>
-      <c r="C102">
+      <c r="F102">
         <v>86.89262932103617</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>20.91332512489556</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>25.25</v>
       </c>
       <c r="B103">
+        <v>639.5130031429297</v>
+      </c>
+      <c r="C103">
+        <v>103.9015715256729</v>
+      </c>
+      <c r="D103">
+        <v>28.42346647776474</v>
+      </c>
+      <c r="E103">
         <v>547.9335636719533</v>
       </c>
-      <c r="C103">
+      <c r="F103">
         <v>86.85663107623049</v>
       </c>
-      <c r="D103">
+      <c r="G103">
         <v>20.91252265248114</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>25.5</v>
       </c>
       <c r="B104">
+        <v>639.1392679803787</v>
+      </c>
+      <c r="C104">
+        <v>103.8707732844127</v>
+      </c>
+      <c r="D104">
+        <v>28.42025896615365</v>
+      </c>
+      <c r="E104">
         <v>547.3215674662459</v>
       </c>
-      <c r="C104">
+      <c r="F104">
         <v>86.82095915325664</v>
       </c>
-      <c r="D104">
+      <c r="G104">
         <v>20.9117318336091</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>25.75</v>
       </c>
       <c r="B105">
+        <v>638.7690101513103</v>
+      </c>
+      <c r="C105">
+        <v>103.8402549878571</v>
+      </c>
+      <c r="D105">
+        <v>28.41708180099685</v>
+      </c>
+      <c r="E105">
         <v>546.7183000826351</v>
       </c>
-      <c r="C105">
+      <c r="F105">
         <v>86.7857807979837</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>20.91095066827808</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>26</v>
       </c>
       <c r="B106">
+        <v>638.4026922053466</v>
+      </c>
+      <c r="C106">
+        <v>103.8100524400732</v>
+      </c>
+      <c r="D106">
+        <v>28.41394028938018</v>
+      </c>
+      <c r="E106">
         <v>546.1206068247606</v>
       </c>
-      <c r="C106">
+      <c r="F106">
         <v>86.75091290500546</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>20.91017488877603</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>26.25</v>
       </c>
       <c r="B107">
+        <v>638.0399821641101</v>
+      </c>
+      <c r="C107">
+        <v>103.7801497815317</v>
+      </c>
+      <c r="D107">
+        <v>28.41082547067493</v>
+      </c>
+      <c r="E107">
         <v>545.5297129886274</v>
       </c>
-      <c r="C107">
+      <c r="F107">
         <v>86.71642179596898</v>
       </c>
-      <c r="D107">
+      <c r="G107">
         <v>20.90941006990364</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>26.5</v>
       </c>
       <c r="B108">
+        <v>637.68135102091</v>
+      </c>
+      <c r="C108">
+        <v>103.7505775297927</v>
+      </c>
+      <c r="D108">
+        <v>28.40774595905495</v>
+      </c>
+      <c r="E108">
         <v>544.9457211347802</v>
       </c>
-      <c r="C108">
+      <c r="F108">
         <v>86.68232212891587</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>20.90865063685873</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>26.75</v>
       </c>
       <c r="B109">
+        <v>637.3258117353259</v>
+      </c>
+      <c r="C109">
+        <v>103.7212547051881</v>
+      </c>
+      <c r="D109">
+        <v>28.40469314034553</v>
+      </c>
+      <c r="E109">
         <v>544.3675466007893</v>
       </c>
-      <c r="C109">
+      <c r="F109">
         <v>86.64854349715057</v>
       </c>
-      <c r="D109">
+      <c r="G109">
         <v>20.90790051089787</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>27</v>
       </c>
       <c r="B110">
+        <v>636.9736439309204</v>
+      </c>
+      <c r="C110">
+        <v>103.6922065387663</v>
+      </c>
+      <c r="D110">
+        <v>28.40166832163659</v>
+      </c>
+      <c r="E110">
         <v>543.7966167689692</v>
       </c>
-      <c r="C110">
+      <c r="F110">
         <v>86.61517096537631</v>
       </c>
-      <c r="D110">
+      <c r="G110">
         <v>20.90716073139508</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>27.25</v>
       </c>
       <c r="B111">
+        <v>636.624921668576</v>
+      </c>
+      <c r="C111">
+        <v>103.66343303052</v>
+      </c>
+      <c r="D111">
+        <v>28.39867550292485</v>
+      </c>
+      <c r="E111">
         <v>543.2313016941987</v>
       </c>
-      <c r="C111">
+      <c r="F111">
         <v>86.58211009741132</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>20.90642895188989</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>27.5</v>
       </c>
       <c r="B112">
+        <v>636.2796688109203</v>
+      </c>
+      <c r="C112">
+        <v>103.6349447534806</v>
+      </c>
+      <c r="D112">
+        <v>28.3957103377536</v>
+      </c>
+      <c r="E112">
         <v>542.6721474720072</v>
       </c>
-      <c r="C112">
+      <c r="F112">
         <v>86.54939429428771</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>20.90570517238532</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>27.75</v>
       </c>
       <c r="B113">
+        <v>635.9376669606382</v>
+      </c>
+      <c r="C113">
+        <v>103.60672584811</v>
+      </c>
+      <c r="D113">
+        <v>28.39276986549652</v>
+      </c>
+      <c r="E113">
         <v>542.1183318408974</v>
       </c>
-      <c r="C113">
+      <c r="F113">
         <v>86.51697958193313</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>20.90498573933819</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>28</v>
       </c>
       <c r="B114">
+        <v>635.5987901020405</v>
+      </c>
+      <c r="C114">
+        <v>103.5787510833416</v>
+      </c>
+      <c r="D114">
+        <v>28.38986104677877</v>
+      </c>
+      <c r="E114">
         <v>541.570884230121</v>
       </c>
-      <c r="C114">
+      <c r="F114">
         <v>86.48492050745699</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>20.90427630628925</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>28.25</v>
       </c>
       <c r="B115">
+        <v>635.2631708916326</v>
+      </c>
+      <c r="C115">
+        <v>103.5510509767535</v>
+      </c>
+      <c r="D115">
+        <v>28.38697457451715</v>
+      </c>
+      <c r="E115">
         <v>541.0292930085543</v>
       </c>
-      <c r="C115">
+      <c r="F115">
         <v>86.45319183979848</v>
       </c>
-      <c r="D115">
+      <c r="G115">
         <v>20.90357321969705</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>28.5</v>
       </c>
       <c r="B116">
+        <v>634.9311482735149</v>
+      </c>
+      <c r="C116">
+        <v>103.5236454728718</v>
+      </c>
+      <c r="D116">
+        <v>28.38411775579664</v>
+      </c>
+      <c r="E116">
         <v>540.4930497372891</v>
       </c>
-      <c r="C116">
+      <c r="F116">
         <v>86.42176426289825</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>20.9028757866495</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>28.75</v>
       </c>
       <c r="B117">
+        <v>634.6020644715389</v>
+      </c>
+      <c r="C117">
+        <v>103.4964747380893</v>
+      </c>
+      <c r="D117">
+        <v>28.38128797644454</v>
+      </c>
+      <c r="E117">
         <v>539.9622789051023</v>
       </c>
-      <c r="C117">
+      <c r="F117">
         <v>86.39064186174943</v>
       </c>
-      <c r="D117">
+      <c r="G117">
         <v>20.90218670005594</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>29</v>
       </c>
       <c r="B118">
+        <v>634.275301518198</v>
+      </c>
+      <c r="C118">
+        <v>103.4694818222533</v>
+      </c>
+      <c r="D118">
+        <v>28.37848315772099</v>
+      </c>
+      <c r="E118">
         <v>539.4364306565369</v>
       </c>
-      <c r="C118">
+      <c r="F118">
         <v>86.35979411881004</v>
       </c>
-      <c r="D118">
+      <c r="G118">
         <v>20.90150430637853</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>29.25</v>
       </c>
       <c r="B119">
+        <v>633.9517910585874</v>
+      </c>
+      <c r="C119">
+        <v>103.4427635645967</v>
+      </c>
+      <c r="D119">
+        <v>28.375700685452</v>
+      </c>
+      <c r="E119">
         <v>538.9164824211072</v>
       </c>
-      <c r="C119">
+      <c r="F119">
         <v>86.32928206920468</v>
       </c>
-      <c r="D119">
+      <c r="G119">
         <v>20.90082756624343</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>29.5</v>
       </c>
       <c r="B120">
+        <v>633.6315001241468</v>
+      </c>
+      <c r="C120">
+        <v>103.4163093920956</v>
+      </c>
+      <c r="D120">
+        <v>28.37294455963886</v>
+      </c>
+      <c r="E120">
         <v>538.4016012797383</v>
       </c>
-      <c r="C120">
+      <c r="F120">
         <v>86.29904996427967</v>
       </c>
-      <c r="D120">
+      <c r="G120">
         <v>20.9001604796493</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>29.75</v>
       </c>
       <c r="B121">
+        <v>633.3133134120608</v>
+      </c>
+      <c r="C121">
+        <v>103.3900236669969</v>
+      </c>
+      <c r="D121">
+        <v>28.37020712674042</v>
+      </c>
+      <c r="E121">
         <v>537.8917123444858</v>
       </c>
-      <c r="C121">
+      <c r="F121">
         <v>86.26910309057172</v>
       </c>
-      <c r="D121">
+      <c r="G121">
         <v>20.89949643242832</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>30</v>
       </c>
       <c r="B122">
+        <v>632.9984939925716</v>
+      </c>
+      <c r="C122">
+        <v>103.3640126000973</v>
+      </c>
+      <c r="D122">
+        <v>28.36749830800962</v>
+      </c>
+      <c r="E122">
         <v>537.386608899826</v>
       </c>
-      <c r="C122">
+      <c r="F122">
         <v>86.23942030201295</v>
       </c>
-      <c r="D122">
+      <c r="G122">
         <v>20.8988416922901</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>30.25</v>
       </c>
       <c r="B123">
+        <v>632.6862697378267</v>
+      </c>
+      <c r="C123">
+        <v>103.3382098697063</v>
+      </c>
+      <c r="D123">
+        <v>28.36481287510677</v>
+      </c>
+      <c r="E123">
         <v>536.8866122491406</v>
       </c>
-      <c r="C123">
+      <c r="F123">
         <v>86.21002803120638</v>
       </c>
-      <c r="D123">
+      <c r="G123">
         <v>20.89819164506655</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>30.5</v>
       </c>
       <c r="B124">
+        <v>632.3770166107261</v>
+      </c>
+      <c r="C124">
+        <v>103.3126565664254</v>
+      </c>
+      <c r="D124">
+        <v>28.36214874928751</v>
+      </c>
+      <c r="E124">
         <v>536.3914296885724</v>
       </c>
-      <c r="C124">
+      <c r="F124">
         <v>86.18090513203458</v>
       </c>
-      <c r="D124">
+      <c r="G124">
         <v>20.89754890492951</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>30.75</v>
       </c>
       <c r="B125">
+        <v>632.0702899034146</v>
+      </c>
+      <c r="C125">
+        <v>103.2873063131482</v>
+      </c>
+      <c r="D125">
+        <v>28.35950731638083</v>
+      </c>
+      <c r="E125">
         <v>535.9013586700125</v>
       </c>
-      <c r="C125">
+      <c r="F125">
         <v>86.1520727506167</v>
       </c>
-      <c r="D125">
+      <c r="G125">
         <v>20.89691155061927</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>31</v>
       </c>
       <c r="B126">
+        <v>631.7662921744127</v>
+      </c>
+      <c r="C126">
+        <v>103.2621749694111</v>
+      </c>
+      <c r="D126">
+        <v>28.35689084410154</v>
+      </c>
+      <c r="E126">
         <v>535.4146147273605</v>
       </c>
-      <c r="C126">
+      <c r="F126">
         <v>86.12342347465545</v>
       </c>
-      <c r="D126">
+      <c r="G126">
         <v>20.89627915693887</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>31.25</v>
       </c>
       <c r="B127">
+        <v>631.464390373469</v>
+      </c>
+      <c r="C127">
+        <v>103.2372067865977</v>
+      </c>
+      <c r="D127">
+        <v>28.35429575764847</v>
+      </c>
+      <c r="E127">
         <v>534.9341617240361</v>
       </c>
-      <c r="C127">
+      <c r="F127">
         <v>86.09513512306432</v>
       </c>
-      <c r="D127">
+      <c r="G127">
         <v>20.89565345617156</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>31.5</v>
       </c>
       <c r="B128">
+        <v>631.1652597339871</v>
+      </c>
+      <c r="C128">
+        <v>103.2124774578454</v>
+      </c>
+      <c r="D128">
+        <v>28.3517172853682</v>
+      </c>
+      <c r="E128">
         <v>534.4572164443487</v>
       </c>
-      <c r="C128">
+      <c r="F128">
         <v>86.06704044998577</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>20.89503340894732</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>31.75</v>
       </c>
       <c r="B129">
+        <v>630.8688097197551</v>
+      </c>
+      <c r="C129">
+        <v>103.1879617521466</v>
+      </c>
+      <c r="D129">
+        <v>28.34916419891323</v>
+      </c>
+      <c r="E129">
         <v>533.9845425546379</v>
       </c>
-      <c r="C129">
+      <c r="F129">
         <v>86.03918463099888</v>
       </c>
-      <c r="D129">
+      <c r="G129">
         <v>20.89442005463649</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>32</v>
       </c>
       <c r="B130">
+        <v>630.5747538225555</v>
+      </c>
+      <c r="C130">
+        <v>103.1636397249123</v>
+      </c>
+      <c r="D130">
+        <v>28.34663207308572</v>
+      </c>
+      <c r="E130">
         <v>533.5169519548682</v>
       </c>
-      <c r="C130">
+      <c r="F130">
         <v>86.01161932973577</v>
       </c>
-      <c r="D130">
+      <c r="G130">
         <v>20.89381200741156</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>32.25</v>
       </c>
       <c r="B131">
+        <v>630.2832600895143</v>
+      </c>
+      <c r="C131">
+        <v>103.1395354057184</v>
+      </c>
+      <c r="D131">
+        <v>28.34411698662846</v>
+      </c>
+      <c r="E131">
         <v>533.0530350346521</v>
       </c>
-      <c r="C131">
+      <c r="F131">
         <v>85.98426236497511</v>
       </c>
-      <c r="D131">
+      <c r="G131">
         <v>20.89320699955799</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>32.5</v>
       </c>
       <c r="B132">
+        <v>629.9940547924123</v>
+      </c>
+      <c r="C132">
+        <v>103.1156101069655</v>
+      </c>
+      <c r="D132">
+        <v>28.34162520725506</v>
+      </c>
+      <c r="E132">
         <v>532.5935244971502</v>
       </c>
-      <c r="C132">
+      <c r="F132">
         <v>85.95715482736779</v>
       </c>
-      <c r="D132">
+      <c r="G132">
         <v>20.8926076452472</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>32.75</v>
       </c>
       <c r="B133">
+        <v>629.7072328394016</v>
+      </c>
+      <c r="C133">
+        <v>103.0918825717103</v>
+      </c>
+      <c r="D133">
+        <v>28.33915177433814</v>
+      </c>
+      <c r="E133">
         <v>532.1373820372664</v>
       </c>
-      <c r="C133">
+      <c r="F133">
         <v>85.93023039519301</v>
       </c>
-      <c r="D133">
+      <c r="G133">
         <v>20.89201629093389</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>33</v>
       </c>
       <c r="B134">
+        <v>629.4224812980815</v>
+      </c>
+      <c r="C134">
+        <v>103.0683181973381</v>
+      </c>
+      <c r="D134">
+        <v>28.3366986878764</v>
+      </c>
+      <c r="E134">
         <v>531.6856378329574</v>
       </c>
-      <c r="C134">
+      <c r="F134">
         <v>85.90356067666738</v>
       </c>
-      <c r="D134">
+      <c r="G134">
         <v>20.89142693662222</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>33.25</v>
       </c>
       <c r="B135">
+        <v>629.1401805067013</v>
+      </c>
+      <c r="C135">
+        <v>103.0449621595159</v>
+      </c>
+      <c r="D135">
+        <v>28.33426194787044</v>
+      </c>
+      <c r="E135">
         <v>531.2383420880993</v>
       </c>
-      <c r="C135">
+      <c r="F135">
         <v>85.87714038526946</v>
       </c>
-      <c r="D135">
+      <c r="G135">
         <v>20.89084558231083</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>33.5</v>
       </c>
       <c r="B136">
+        <v>628.8596113965934</v>
+      </c>
+      <c r="C136">
+        <v>103.0217334784945</v>
+      </c>
+      <c r="D136">
+        <v>28.33184686140732</v>
+      </c>
+      <c r="E136">
         <v>530.7950180171547</v>
       </c>
-      <c r="C136">
+      <c r="F136">
         <v>85.85094837491897</v>
       </c>
-      <c r="D136">
+      <c r="G136">
         <v>20.89026692091155</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>33.75</v>
       </c>
       <c r="B137">
+        <v>628.5818467936286</v>
+      </c>
+      <c r="C137">
+        <v>102.9987489380713</v>
+      </c>
+      <c r="D137">
+        <v>28.32944777494268</v>
+      </c>
+      <c r="E137">
         <v>530.3554236800987</v>
       </c>
-      <c r="C137">
+      <c r="F137">
         <v>85.82496061608435</v>
       </c>
-      <c r="D137">
+      <c r="G137">
         <v>20.88969756659782</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>34</v>
       </c>
       <c r="B138">
-        <v>529.9194891230254</v>
+        <v>628.305727743837</v>
       </c>
       <c r="C138">
+        <v>102.9758864679646</v>
+      </c>
+      <c r="D138">
+        <v>28.32706868847604</v>
+      </c>
+      <c r="E138">
+        <v>529.9194891230457</v>
+      </c>
+      <c r="F138">
         <v>85.79918648028081</v>
       </c>
-      <c r="D138">
+      <c r="G138">
         <v>20.88912821228508</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>34.25</v>
       </c>
       <c r="B139">
-        <v>529.4867511150003</v>
+        <v>628.031970756246</v>
       </c>
       <c r="C139">
+        <v>102.9532176763254</v>
+      </c>
+      <c r="D139">
+        <v>28.32470925555126</v>
+      </c>
+      <c r="E139">
+        <v>529.4867511150073</v>
+      </c>
+      <c r="F139">
         <v>85.7735901634158</v>
       </c>
-      <c r="D139">
+      <c r="G139">
         <v>20.888564243801</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>34.5</v>
       </c>
       <c r="B140">
+        <v>627.7606201679054</v>
+      </c>
+      <c r="C140">
+        <v>102.9307519346854</v>
+      </c>
+      <c r="D140">
+        <v>28.32236686199611</v>
+      </c>
+      <c r="E140">
         <v>529.0580340484784</v>
       </c>
-      <c r="C140">
+      <c r="F140">
         <v>85.74821804263195</v>
       </c>
-      <c r="D140">
+      <c r="G140">
         <v>20.88800854303027</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>34.75</v>
       </c>
       <c r="B141">
+        <v>627.4914721584037</v>
+      </c>
+      <c r="C141">
+        <v>102.9084692984961</v>
+      </c>
+      <c r="D141">
+        <v>28.32004142907049</v>
+      </c>
+      <c r="E141">
         <v>528.633785349126</v>
       </c>
-      <c r="C141">
+      <c r="F141">
         <v>85.72311000699199</v>
       </c>
-      <c r="D141">
+      <c r="G141">
         <v>20.88745257454547</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>35</v>
       </c>
       <c r="B142">
+        <v>627.2236562220405</v>
+      </c>
+      <c r="C142">
+        <v>102.8862835015549</v>
+      </c>
+      <c r="D142">
+        <v>28.31773303551343</v>
+      </c>
+      <c r="E142">
         <v>528.2116934169873</v>
       </c>
-      <c r="C142">
+      <c r="F142">
         <v>85.69810938364282</v>
       </c>
-      <c r="D142">
+      <c r="G142">
         <v>20.88690722022997</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>35.25</v>
       </c>
       <c r="B143">
+        <v>626.9577933968712</v>
+      </c>
+      <c r="C143">
+        <v>102.8642555790181</v>
+      </c>
+      <c r="D143">
+        <v>28.31544194904075</v>
+      </c>
+      <c r="E143">
         <v>527.793354418725</v>
       </c>
-      <c r="C143">
+      <c r="F143">
         <v>85.6733329563221</v>
       </c>
-      <c r="D143">
+      <c r="G143">
         <v>20.88635925174398</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>35.5</v>
       </c>
       <c r="B144">
+        <v>626.6945312047005</v>
+      </c>
+      <c r="C144">
+        <v>102.8424559375202</v>
+      </c>
+      <c r="D144">
+        <v>28.31316486256913</v>
+      </c>
+      <c r="E144">
         <v>527.3800245195686</v>
       </c>
-      <c r="C144">
+      <c r="F144">
         <v>85.64884055871227</v>
       </c>
-      <c r="D144">
+      <c r="G144">
         <v>20.88582059034411</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>35.75</v>
       </c>
       <c r="B145">
+        <v>626.433246884235</v>
+      </c>
+      <c r="C145">
+        <v>102.8208141704137</v>
+      </c>
+      <c r="D145">
+        <v>28.31090646900835</v>
+      </c>
+      <c r="E145">
         <v>526.96819558788</v>
       </c>
-      <c r="C145">
+      <c r="F145">
         <v>85.62443034232604</v>
       </c>
-      <c r="D145">
+      <c r="G145">
         <v>20.88528262185824</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>36</v>
       </c>
       <c r="B146">
+        <v>626.1731027837171</v>
+      </c>
+      <c r="C146">
+        <v>102.7992492980173</v>
+      </c>
+      <c r="D146">
+        <v>28.30866572899057</v>
+      </c>
+      <c r="E146">
         <v>526.5601704802006</v>
       </c>
-      <c r="C146">
+      <c r="F146">
         <v>85.60023374896082</v>
       </c>
-      <c r="D146">
+      <c r="G146">
         <v>20.88475196045751</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>36.25</v>
       </c>
       <c r="B147">
+        <v>625.9156104555074</v>
+      </c>
+      <c r="C147">
+        <v>102.7779179932042</v>
+      </c>
+      <c r="D147">
+        <v>28.30643898897091</v>
+      </c>
+      <c r="E147">
         <v>526.1561705802258</v>
       </c>
-      <c r="C147">
+      <c r="F147">
         <v>85.5762707231616</v>
       </c>
-      <c r="D147">
+      <c r="G147">
         <v>20.88422433842731</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>36.5</v>
       </c>
       <c r="B148">
+        <v>625.6594024658011</v>
+      </c>
+      <c r="C148">
+        <v>102.7566835276043</v>
+      </c>
+      <c r="D148">
+        <v>28.30422694186645</v>
+      </c>
+      <c r="E148">
         <v>525.7546754942466</v>
       </c>
-      <c r="C148">
+      <c r="F148">
         <v>85.55244562723061</v>
       </c>
-      <c r="D148">
+      <c r="G148">
         <v>20.88370167702617</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>36.75</v>
       </c>
       <c r="B149">
+        <v>625.4058540724197</v>
+      </c>
+      <c r="C149">
+        <v>102.7356773430866</v>
+      </c>
+      <c r="D149">
+        <v>28.30203220184564</v>
+      </c>
+      <c r="E149">
         <v>525.3569041199265</v>
       </c>
-      <c r="C149">
+      <c r="F149">
         <v>85.5288341543399</v>
       </c>
-      <c r="D149">
+      <c r="G149">
         <v>20.88318336208153</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>37</v>
       </c>
       <c r="B150">
+        <v>625.1533943183846</v>
+      </c>
+      <c r="C150">
+        <v>102.7147480532429</v>
+      </c>
+      <c r="D150">
+        <v>28.29985250119437</v>
+      </c>
+      <c r="E150">
         <v>524.9618177733491</v>
       </c>
-      <c r="C150">
+      <c r="F150">
         <v>85.50537526932339</v>
       </c>
-      <c r="D150">
+      <c r="G150">
         <v>20.88266774005182</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>37.25</v>
       </c>
       <c r="B151">
+        <v>624.902854142524</v>
+      </c>
+      <c r="C151">
+        <v>102.6939713512934</v>
+      </c>
+      <c r="D151">
+        <v>28.29769141471298</v>
+      </c>
+      <c r="E151">
         <v>524.5695228794608</v>
       </c>
-      <c r="C151">
+      <c r="F151">
         <v>85.48207425868458</v>
       </c>
-      <c r="D151">
+      <c r="G151">
         <v>20.88215577156374</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>37.5</v>
       </c>
       <c r="B152">
+        <v>624.6543437277189</v>
+      </c>
+      <c r="C152">
+        <v>102.6733724682823</v>
+      </c>
+      <c r="D152">
+        <v>28.29554136760398</v>
+      </c>
+      <c r="E152">
         <v>524.1813929619735</v>
       </c>
-      <c r="C152">
+      <c r="F152">
         <v>85.45901210215067</v>
       </c>
-      <c r="D152">
+      <c r="G152">
         <v>20.88164980307618</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>37.75</v>
       </c>
       <c r="B153">
+        <v>624.4073724292317</v>
+      </c>
+      <c r="C153">
+        <v>102.6528903690437</v>
+      </c>
+      <c r="D153">
+        <v>28.29340897403513</v>
+      </c>
+      <c r="E153">
         <v>523.7955118734792</v>
       </c>
-      <c r="C153">
+      <c r="F153">
         <v>85.43607730243815</v>
       </c>
-      <c r="D153">
+      <c r="G153">
         <v>20.88114583458815</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>38</v>
       </c>
       <c r="B154">
+        <v>624.1620523288952</v>
+      </c>
+      <c r="C154">
+        <v>102.6325461996751</v>
+      </c>
+      <c r="D154">
+        <v>28.29128892692257</v>
+      </c>
+      <c r="E154">
         <v>523.4124694261691</v>
       </c>
-      <c r="C154">
+      <c r="F154">
         <v>85.41330037711481</v>
       </c>
-      <c r="D154">
+      <c r="G154">
         <v>20.88064786609962</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>38.25</v>
       </c>
       <c r="B155">
+        <v>623.9187250966772</v>
+      </c>
+      <c r="C155">
+        <v>102.6123745627062</v>
+      </c>
+      <c r="D155">
+        <v>28.28918087981047</v>
+      </c>
+      <c r="E155">
         <v>523.0326349451558</v>
       </c>
-      <c r="C155">
+      <c r="F155">
         <v>85.39071184376962</v>
       </c>
-      <c r="D155">
+      <c r="G155">
         <v>20.88015059052553</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>38.5</v>
       </c>
       <c r="B156">
+        <v>623.6764802042862</v>
+      </c>
+      <c r="C156">
+        <v>102.5922745339398</v>
+      </c>
+      <c r="D156">
+        <v>28.28709048623935</v>
+      </c>
+      <c r="E156">
         <v>522.6559422239035</v>
       </c>
-      <c r="C156">
+      <c r="F156">
         <v>85.36830112934985</v>
       </c>
-      <c r="D156">
+      <c r="G156">
         <v>20.87965862203662</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>38.75</v>
       </c>
       <c r="B157">
+        <v>623.436315443989</v>
+      </c>
+      <c r="C157">
+        <v>102.5723576106038</v>
+      </c>
+      <c r="D157">
+        <v>28.28501113203985</v>
+      </c>
+      <c r="E157">
         <v>522.2814968918951</v>
       </c>
-      <c r="C157">
+      <c r="F157">
         <v>85.34601777177573</v>
       </c>
-      <c r="D157">
+      <c r="G157">
         <v>20.87916900000457</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>39</v>
       </c>
       <c r="B158">
+        <v>623.1973886751489</v>
+      </c>
+      <c r="C158">
+        <v>102.5525322400065</v>
+      </c>
+      <c r="D158">
+        <v>28.28294708492418</v>
+      </c>
+      <c r="E158">
         <v>521.909793945122</v>
       </c>
-      <c r="C158">
+      <c r="F158">
         <v>85.32388700205951</v>
       </c>
-      <c r="D158">
+      <c r="G158">
         <v>20.87868537797281</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>39.25</v>
       </c>
       <c r="B159">
+        <v>622.9605153593982</v>
+      </c>
+      <c r="C159">
+        <v>102.5328794018345</v>
+      </c>
+      <c r="D159">
+        <v>28.28089834489348</v>
+      </c>
+      <c r="E159">
         <v>521.5413663597819</v>
       </c>
-      <c r="C159">
+      <c r="F159">
         <v>85.3019446243211</v>
       </c>
-      <c r="D159">
+      <c r="G159">
         <v>20.87820575594073</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>39.5</v>
       </c>
       <c r="B160">
+        <v>622.7249579319875</v>
+      </c>
+      <c r="C160">
+        <v>102.5133339759295</v>
+      </c>
+      <c r="D160">
+        <v>28.27886064423341</v>
+      </c>
+      <c r="E160">
         <v>521.1754256372899</v>
       </c>
-      <c r="C160">
+      <c r="F160">
         <v>85.28014954794719</v>
       </c>
-      <c r="D160">
+      <c r="G160">
         <v>20.87772517327928</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>39.75</v>
       </c>
       <c r="B161">
+        <v>622.4916602697275</v>
+      </c>
+      <c r="C161">
+        <v>102.4939810269948</v>
+      </c>
+      <c r="D161">
+        <v>28.27683859711484</v>
+      </c>
+      <c r="E161">
         <v>520.8124063585284</v>
       </c>
-      <c r="C161">
+      <c r="F161">
         <v>85.25851763247266</v>
       </c>
-      <c r="D161">
+      <c r="G161">
         <v>20.8772512047901</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>40</v>
       </c>
       <c r="B162">
+        <v>622.259071587116</v>
+      </c>
+      <c r="C162">
+        <v>102.4746797416771</v>
+      </c>
+      <c r="D162">
+        <v>28.27482524290983</v>
+      </c>
+      <c r="E162">
         <v>520.4510574983508</v>
       </c>
-      <c r="C162">
+      <c r="F162">
         <v>85.23697726974427</v>
       </c>
-      <c r="D162">
+      <c r="G162">
         <v>20.87678027567224</v>
       </c>
     </row>
@@ -3609,19 +5241,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
